--- a/CPIT380-Group Project - Rubric(1).xlsx
+++ b/CPIT380-Group Project - Rubric(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nero\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nero\Documents\NetBeansProjects\380_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A4B49E-A425-4657-A191-3362005FFE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F8BC73-C620-409F-9148-B9F044FBBE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +570,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -839,62 +845,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:F29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,13 +1254,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1268,297 +1292,298 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
-        <v>1</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="38">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="43">
+      <c r="C3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="41">
         <v>3</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="42">
         <v>0</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
-        <v>2</v>
-      </c>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="44">
+        <v>2</v>
+      </c>
+      <c r="B4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="43">
-        <v>2</v>
-      </c>
-      <c r="E4" s="44">
-        <v>1</v>
-      </c>
-      <c r="F4" s="45">
+      <c r="C4" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="41">
+        <v>2</v>
+      </c>
+      <c r="E4" s="42">
+        <v>1</v>
+      </c>
+      <c r="F4" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="49">
-        <v>1</v>
-      </c>
-      <c r="E5" s="44">
-        <v>1</v>
-      </c>
-      <c r="F5" s="45">
+      <c r="C5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="47">
+        <v>1</v>
+      </c>
+      <c r="E5" s="42">
+        <v>1</v>
+      </c>
+      <c r="F5" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="49">
-        <v>1</v>
-      </c>
-      <c r="E6" s="44">
-        <v>1</v>
-      </c>
-      <c r="F6" s="45">
+      <c r="C6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="47">
+        <v>1</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
+      <c r="F6" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="49">
-        <v>1</v>
-      </c>
-      <c r="E7" s="44">
-        <v>1</v>
-      </c>
-      <c r="F7" s="45">
+      <c r="C7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="47">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42">
+        <v>1</v>
+      </c>
+      <c r="F7" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
+      <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="43">
-        <v>1</v>
-      </c>
-      <c r="E8" s="44">
-        <v>1</v>
-      </c>
-      <c r="F8" s="45">
+      <c r="C8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="41">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="43">
-        <v>1</v>
-      </c>
-      <c r="E9" s="44">
-        <v>1</v>
-      </c>
-      <c r="F9" s="45">
+      <c r="C9" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="41">
+        <v>1</v>
+      </c>
+      <c r="E9" s="42">
+        <v>1</v>
+      </c>
+      <c r="F9" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+      <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="43">
-        <v>1</v>
-      </c>
-      <c r="E10" s="44">
-        <v>1</v>
-      </c>
-      <c r="F10" s="45">
+      <c r="C10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="41">
+        <v>1</v>
+      </c>
+      <c r="E10" s="42">
+        <v>1</v>
+      </c>
+      <c r="F10" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
-        <v>9</v>
-      </c>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="38">
+        <v>9</v>
+      </c>
+      <c r="B11" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="43">
-        <v>1</v>
-      </c>
-      <c r="E11" s="44">
-        <v>1</v>
-      </c>
-      <c r="F11" s="45">
+      <c r="C11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="41">
+        <v>1</v>
+      </c>
+      <c r="E11" s="42">
+        <v>1</v>
+      </c>
+      <c r="F11" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+      <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="43">
-        <v>1</v>
-      </c>
-      <c r="E12" s="44">
+      <c r="D12" s="41">
+        <v>1</v>
+      </c>
+      <c r="E12" s="42">
         <v>0</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="43">
-        <v>2</v>
-      </c>
-      <c r="E13" s="44">
+      <c r="D13" s="41">
+        <v>2</v>
+      </c>
+      <c r="E13" s="42">
         <v>0</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
+      <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="41">
         <v>3</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="42">
         <v>0</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="43">
-        <v>2</v>
-      </c>
-      <c r="E15" s="44">
-        <v>1</v>
-      </c>
-      <c r="F15" s="45"/>
+      <c r="C15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="41">
+        <v>2</v>
+      </c>
+      <c r="E15" s="42">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43"/>
       <c r="G15" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46">
+      <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="55">
-        <v>2</v>
-      </c>
-      <c r="E16" s="50">
-        <v>1</v>
-      </c>
-      <c r="F16" s="51"/>
+      <c r="C16" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="53">
+        <v>2</v>
+      </c>
+      <c r="E16" s="48">
+        <v>1</v>
+      </c>
+      <c r="F16" s="49"/>
       <c r="G16" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="38">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2</v>
-      </c>
-      <c r="E17" s="28">
-        <v>1</v>
-      </c>
+      <c r="C17" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="47">
+        <v>2</v>
+      </c>
+      <c r="E17" s="48">
+        <v>1</v>
+      </c>
+      <c r="F17" s="49"/>
       <c r="G17" s="27">
         <v>1</v>
       </c>
@@ -1581,21 +1606,22 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="38">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="E19" s="28">
-        <v>1</v>
-      </c>
+      <c r="C19" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="47">
+        <v>1</v>
+      </c>
+      <c r="E19" s="48">
+        <v>1</v>
+      </c>
+      <c r="F19" s="49"/>
       <c r="G19" s="27">
         <v>1</v>
       </c>
@@ -1621,124 +1647,124 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40">
+      <c r="A21" s="38">
         <v>19</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="49">
+      <c r="C21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="47">
         <v>3</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="48">
         <v>3</v>
       </c>
-      <c r="F21" s="51"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46">
+      <c r="A22" s="44">
         <v>20</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="49">
+      <c r="C22" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="47">
         <v>3</v>
       </c>
-      <c r="E22" s="50">
-        <v>2</v>
-      </c>
-      <c r="F22" s="51"/>
+      <c r="E22" s="48">
+        <v>2</v>
+      </c>
+      <c r="F22" s="49"/>
       <c r="G22" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40">
+      <c r="A23" s="38">
         <v>21</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="47">
         <v>3</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="48">
         <v>0</v>
       </c>
-      <c r="F23" s="51"/>
+      <c r="F23" s="49"/>
     </row>
     <row r="24" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46">
+      <c r="A24" s="44">
         <v>22</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="49">
+      <c r="C24" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="47">
         <v>3</v>
       </c>
-      <c r="E24" s="50">
-        <v>2</v>
-      </c>
-      <c r="F24" s="51"/>
+      <c r="E24" s="48">
+        <v>2</v>
+      </c>
+      <c r="F24" s="49"/>
       <c r="H24" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40">
+      <c r="A25" s="38">
         <v>23</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="49">
+      <c r="C25" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="47">
         <v>3</v>
       </c>
-      <c r="E25" s="50">
-        <v>2</v>
-      </c>
-      <c r="F25" s="51"/>
+      <c r="E25" s="48">
+        <v>2</v>
+      </c>
+      <c r="F25" s="49"/>
       <c r="H25" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46">
+      <c r="A26" s="44">
         <v>24</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="49">
-        <v>1</v>
-      </c>
-      <c r="E26" s="50">
-        <v>1</v>
-      </c>
-      <c r="F26" s="51"/>
+      <c r="C26" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="47">
+        <v>1</v>
+      </c>
+      <c r="E26" s="48">
+        <v>1</v>
+      </c>
+      <c r="F26" s="49"/>
       <c r="H26" s="27">
         <v>1</v>
       </c>
@@ -1761,42 +1787,43 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="A28" s="44">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="C28" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="47">
         <v>3</v>
       </c>
-      <c r="E28" s="28">
-        <v>2</v>
-      </c>
+      <c r="E28" s="48">
+        <v>2</v>
+      </c>
+      <c r="F28" s="49"/>
       <c r="H28" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46">
+      <c r="A29" s="44">
         <v>28</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="44">
+      <c r="C29" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="42">
         <v>5</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="48">
         <v>3</v>
       </c>
-      <c r="F29" s="51"/>
+      <c r="F29" s="49"/>
       <c r="H29" s="27">
         <v>3</v>
       </c>
@@ -1842,21 +1869,22 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="123" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="57">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="C32" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="60">
         <v>3</v>
       </c>
-      <c r="E32" s="28">
-        <v>2</v>
-      </c>
+      <c r="E32" s="61">
+        <v>2</v>
+      </c>
+      <c r="F32" s="62"/>
       <c r="I32" s="27">
         <v>2</v>
       </c>
@@ -2207,11 +2235,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="16">
         <f>SUM(D3:D50)</f>
         <v>100</v>
@@ -2238,11 +2266,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="37">
         <v>20</v>
       </c>
@@ -2257,10 +2285,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="39"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="37">
         <v>5</v>
       </c>
@@ -2272,10 +2300,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="39"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="37">
         <v>25</v>
       </c>

--- a/CPIT380-Group Project - Rubric(1).xlsx
+++ b/CPIT380-Group Project - Rubric(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nero\Documents\NetBeansProjects\380_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nero\Documents\NetBeansProjects\Cpit380_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F8BC73-C620-409F-9148-B9F044FBBE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307E39A7-D48F-456B-B7BE-07D043E85DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <r>
       <t>S</t>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>Counting Number of Vehicles - User will input an  video where some vehicles will pass through and system will count how many vehicles are present in that image or video. User may use toy cars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix m wm photo </t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +579,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -896,28 +905,46 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,20 +1274,20 @@
     <col min="3" max="3" width="15.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" style="27" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="27" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="27" customWidth="1"/>
     <col min="8" max="8" width="11" style="27" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1787,22 +1814,24 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44">
+      <c r="A28" s="63">
         <v>26</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="47">
+      <c r="C28" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="66">
         <v>3</v>
       </c>
-      <c r="E28" s="48">
-        <v>2</v>
-      </c>
-      <c r="F28" s="49"/>
+      <c r="E28" s="67">
+        <v>2</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>64</v>
+      </c>
       <c r="H28" s="27">
         <v>2</v>
       </c>
@@ -1869,22 +1898,22 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="123" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="57">
+      <c r="A32" s="55">
         <v>31</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="60">
+      <c r="C32" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="58">
         <v>3</v>
       </c>
-      <c r="E32" s="61">
-        <v>2</v>
-      </c>
-      <c r="F32" s="62"/>
+      <c r="E32" s="59">
+        <v>2</v>
+      </c>
+      <c r="F32" s="60"/>
       <c r="I32" s="27">
         <v>2</v>
       </c>
@@ -2235,11 +2264,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="16">
         <f>SUM(D3:D50)</f>
         <v>100</v>
@@ -2266,11 +2295,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="37">
         <v>20</v>
       </c>
@@ -2285,10 +2314,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="56"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="37">
         <v>5</v>
       </c>
@@ -2300,10 +2329,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="56"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="37">
         <v>25</v>
       </c>

--- a/CPIT380-Group Project - Rubric(1).xlsx
+++ b/CPIT380-Group Project - Rubric(1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nero\Documents\NetBeansProjects\Cpit380_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307E39A7-D48F-456B-B7BE-07D043E85DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C774E8-2FD6-44E4-B492-83330093D924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <r>
       <t>S</t>
@@ -463,6 +463,15 @@
   </si>
   <si>
     <t xml:space="preserve">fix m wm photo </t>
+  </si>
+  <si>
+    <t>need to ask to delete it</t>
+  </si>
+  <si>
+    <t>ask if it good?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to ask </t>
   </si>
 </sst>
 </file>
@@ -578,13 +587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -776,15 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,12 +809,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,9 +821,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -905,7 +896,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,7 +920,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,6 +936,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,7 +1256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1264,30 +1267,30 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="20" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17" style="27" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="11" style="27" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="17" style="22" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="11" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1305,313 +1308,313 @@
       <c r="E2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
-        <v>1</v>
-      </c>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="41">
+      <c r="C3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="35">
         <v>3</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="36">
         <v>0</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44">
-        <v>2</v>
-      </c>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="38">
+        <v>2</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="41">
-        <v>2</v>
-      </c>
-      <c r="E4" s="42">
-        <v>1</v>
-      </c>
-      <c r="F4" s="43">
+      <c r="C4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="35">
+        <v>2</v>
+      </c>
+      <c r="E4" s="36">
+        <v>1</v>
+      </c>
+      <c r="F4" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+      <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="47">
-        <v>1</v>
-      </c>
-      <c r="E5" s="42">
-        <v>1</v>
-      </c>
-      <c r="F5" s="43">
+      <c r="C5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="41">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36">
+        <v>1</v>
+      </c>
+      <c r="F5" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="47">
-        <v>1</v>
-      </c>
-      <c r="E6" s="42">
-        <v>1</v>
-      </c>
-      <c r="F6" s="43">
+      <c r="C6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="41">
+        <v>1</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1</v>
+      </c>
+      <c r="F6" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
+      <c r="A7" s="32">
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="47">
-        <v>1</v>
-      </c>
-      <c r="E7" s="42">
-        <v>1</v>
-      </c>
-      <c r="F7" s="43">
+      <c r="C7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="41">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="41">
-        <v>1</v>
-      </c>
-      <c r="E8" s="42">
-        <v>1</v>
-      </c>
-      <c r="F8" s="43">
+      <c r="C8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1</v>
+      </c>
+      <c r="F8" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
+      <c r="A9" s="32">
         <v>7</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="41">
-        <v>1</v>
-      </c>
-      <c r="E9" s="42">
-        <v>1</v>
-      </c>
-      <c r="F9" s="43">
+      <c r="C9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="35">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="41">
-        <v>1</v>
-      </c>
-      <c r="E10" s="42">
-        <v>1</v>
-      </c>
-      <c r="F10" s="43">
+      <c r="C10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="35">
+        <v>1</v>
+      </c>
+      <c r="E10" s="36">
+        <v>1</v>
+      </c>
+      <c r="F10" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
-        <v>9</v>
-      </c>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="32">
+        <v>9</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="41">
-        <v>1</v>
-      </c>
-      <c r="E11" s="42">
-        <v>1</v>
-      </c>
-      <c r="F11" s="43">
+      <c r="C11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="35">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
+        <v>1</v>
+      </c>
+      <c r="F11" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="41">
-        <v>1</v>
-      </c>
-      <c r="E12" s="42">
+      <c r="D12" s="35">
+        <v>1</v>
+      </c>
+      <c r="E12" s="36">
         <v>0</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38">
+      <c r="A13" s="32">
         <v>11</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="41">
-        <v>2</v>
-      </c>
-      <c r="E13" s="42">
+      <c r="D13" s="35">
+        <v>2</v>
+      </c>
+      <c r="E13" s="36">
         <v>0</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
+      <c r="A14" s="38">
         <v>12</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="35">
         <v>3</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="36">
         <v>0</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
+      <c r="A15" s="32">
         <v>13</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="41">
-        <v>2</v>
-      </c>
-      <c r="E15" s="42">
-        <v>1</v>
-      </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="27">
+      <c r="C15" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="35">
+        <v>2</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
+      <c r="A16" s="38">
         <v>14</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="53">
-        <v>2</v>
-      </c>
-      <c r="E16" s="48">
-        <v>1</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="27">
+      <c r="C16" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="47">
+        <v>2</v>
+      </c>
+      <c r="E16" s="42">
+        <v>1</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38">
+      <c r="A17" s="32">
         <v>15</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="47">
-        <v>2</v>
-      </c>
-      <c r="E17" s="48">
-        <v>1</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="27">
+      <c r="C17" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="41">
+        <v>2</v>
+      </c>
+      <c r="E17" s="42">
+        <v>1</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1619,180 +1622,181 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="11">
         <v>0</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38">
+      <c r="A19" s="32">
         <v>17</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="47">
-        <v>1</v>
-      </c>
-      <c r="E19" s="48">
-        <v>1</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="27">
+      <c r="C19" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="41">
+        <v>1</v>
+      </c>
+      <c r="E19" s="42">
+        <v>1</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="63">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="C20" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="60">
         <v>3</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="61">
         <v>3</v>
       </c>
-      <c r="G20" s="27">
+      <c r="F20" s="62"/>
+      <c r="G20" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38">
+      <c r="A21" s="32">
         <v>19</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="47">
+      <c r="C21" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="41">
         <v>3</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="42">
         <v>3</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="27">
+      <c r="F21" s="43"/>
+      <c r="G21" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44">
+      <c r="A22" s="38">
         <v>20</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="47">
+      <c r="C22" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="41">
         <v>3</v>
       </c>
-      <c r="E22" s="48">
-        <v>2</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="27">
+      <c r="E22" s="42">
+        <v>2</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38">
+      <c r="A23" s="32">
         <v>21</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="41">
         <v>3</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="42">
         <v>0</v>
       </c>
-      <c r="F23" s="49"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44">
+      <c r="A24" s="38">
         <v>22</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="47">
+      <c r="C24" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="41">
         <v>3</v>
       </c>
-      <c r="E24" s="48">
-        <v>2</v>
-      </c>
-      <c r="F24" s="49"/>
-      <c r="H24" s="27">
+      <c r="E24" s="42">
+        <v>2</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="H24" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38">
+      <c r="A25" s="32">
         <v>23</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="47">
+      <c r="C25" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="41">
         <v>3</v>
       </c>
-      <c r="E25" s="48">
-        <v>2</v>
-      </c>
-      <c r="F25" s="49"/>
-      <c r="H25" s="27">
+      <c r="E25" s="42">
+        <v>2</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="H25" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44">
+      <c r="A26" s="38">
         <v>24</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="47">
-        <v>1</v>
-      </c>
-      <c r="E26" s="48">
-        <v>1</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="H26" s="27">
+      <c r="C26" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="41">
+        <v>1</v>
+      </c>
+      <c r="E26" s="42">
+        <v>1</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="H26" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1800,201 +1804,213 @@
       <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="11">
         <v>0</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63">
+      <c r="A28" s="49">
         <v>26</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="66">
+      <c r="C28" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="52">
         <v>3</v>
       </c>
-      <c r="E28" s="67">
-        <v>2</v>
-      </c>
-      <c r="F28" s="68" t="s">
+      <c r="E28" s="53">
+        <v>2</v>
+      </c>
+      <c r="F28" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44">
+      <c r="A29" s="38">
         <v>28</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="42">
+      <c r="C29" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="36">
         <v>5</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="42">
         <v>3</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="H29" s="27">
+      <c r="F29" s="43"/>
+      <c r="H29" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="57">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="14">
-        <v>2</v>
-      </c>
-      <c r="E30" s="29">
-        <v>1</v>
-      </c>
-      <c r="H30" s="27">
+      <c r="C30" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="65">
+        <v>2</v>
+      </c>
+      <c r="E30" s="66">
+        <v>1</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="38">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="13">
-        <v>2</v>
-      </c>
-      <c r="E31" s="28">
-        <v>1</v>
-      </c>
-      <c r="H31" s="27">
+      <c r="C31" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="47">
+        <v>2</v>
+      </c>
+      <c r="E31" s="42">
+        <v>1</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="H31" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="123" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="55">
+      <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="58">
+      <c r="C32" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="41">
         <v>3</v>
       </c>
-      <c r="E32" s="59">
-        <v>2</v>
-      </c>
-      <c r="F32" s="60"/>
-      <c r="I32" s="27">
+      <c r="E32" s="42">
+        <v>2</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="I32" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="63">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="11">
-        <v>2</v>
-      </c>
-      <c r="E33" s="28">
-        <v>2</v>
-      </c>
-      <c r="I33" s="27">
+      <c r="C33" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="60">
+        <v>2</v>
+      </c>
+      <c r="E33" s="61">
+        <v>2</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="11">
-        <v>2</v>
-      </c>
-      <c r="E34" s="28">
-        <v>1</v>
-      </c>
-      <c r="I34" s="27">
+      <c r="C34" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="41">
+        <v>2</v>
+      </c>
+      <c r="E34" s="42">
+        <v>1</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="I34" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="38">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="11">
+      <c r="C35" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="41">
         <v>3</v>
       </c>
-      <c r="E35" s="28">
-        <v>1</v>
-      </c>
-      <c r="I35" s="27">
+      <c r="E35" s="42">
+        <v>1</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="I35" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="57">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="C36" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="60">
         <v>5</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="61">
         <v>4</v>
       </c>
-      <c r="I36" s="27">
+      <c r="F36" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="22">
         <v>4</v>
       </c>
     </row>
@@ -2005,16 +2021,16 @@
       <c r="B37" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
       </c>
-      <c r="E37" s="28">
-        <v>1</v>
-      </c>
-      <c r="I37" s="27">
+      <c r="E37" s="23">
+        <v>1</v>
+      </c>
+      <c r="I37" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2025,16 +2041,16 @@
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="11">
         <v>2</v>
       </c>
-      <c r="E38" s="28">
-        <v>1</v>
-      </c>
-      <c r="I38" s="27">
+      <c r="E38" s="23">
+        <v>1</v>
+      </c>
+      <c r="I38" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2045,16 +2061,16 @@
       <c r="B39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="11">
         <v>5</v>
       </c>
-      <c r="E39" s="28">
-        <v>2</v>
-      </c>
-      <c r="I39" s="27">
+      <c r="E39" s="23">
+        <v>2</v>
+      </c>
+      <c r="I39" s="22">
         <v>2</v>
       </c>
     </row>
@@ -2065,16 +2081,16 @@
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
       </c>
-      <c r="E40" s="28">
-        <v>1</v>
-      </c>
-      <c r="I40" s="27">
+      <c r="E40" s="23">
+        <v>1</v>
+      </c>
+      <c r="I40" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2085,16 +2101,16 @@
       <c r="B41" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="11">
         <v>2</v>
       </c>
-      <c r="E41" s="28">
-        <v>1</v>
-      </c>
-      <c r="I41" s="27">
+      <c r="E41" s="23">
+        <v>1</v>
+      </c>
+      <c r="I41" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2105,16 +2121,16 @@
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
       </c>
-      <c r="E42" s="28">
-        <v>1</v>
-      </c>
-      <c r="I42" s="27">
+      <c r="E42" s="23">
+        <v>1</v>
+      </c>
+      <c r="I42" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2125,16 +2141,16 @@
       <c r="B43" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
       </c>
-      <c r="E43" s="28">
-        <v>1</v>
-      </c>
-      <c r="I43" s="27">
+      <c r="E43" s="23">
+        <v>1</v>
+      </c>
+      <c r="I43" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2145,16 +2161,16 @@
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
       </c>
-      <c r="E44" s="28">
-        <v>1</v>
-      </c>
-      <c r="I44" s="27">
+      <c r="E44" s="23">
+        <v>1</v>
+      </c>
+      <c r="I44" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2162,16 +2178,16 @@
       <c r="A45" s="6">
         <v>45</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="11">
         <v>0</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2179,7 +2195,7 @@
       <c r="A46" s="9">
         <v>46</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -2188,7 +2204,7 @@
       <c r="D46" s="11">
         <v>5</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2199,16 +2215,16 @@
       <c r="B47" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="11">
         <v>5</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="23">
         <v>4</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="22">
         <v>4</v>
       </c>
     </row>
@@ -2216,16 +2232,16 @@
       <c r="A48" s="9">
         <v>48</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="11">
         <v>0</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2233,114 +2249,114 @@
       <c r="A49" s="6">
         <v>49</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="12">
         <v>0</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="32">
+      <c r="A50" s="26">
         <v>50</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="29">
         <v>0</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="16">
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="13">
         <f>SUM(D3:D50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="13">
         <f>SUM(E3:E50)</f>
         <v>55</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="13">
         <f>SUM(F3:F50)</f>
         <v>10</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="13">
         <f t="shared" ref="G51:I51" si="0">SUM(G3:G50)</f>
         <v>12</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="13">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="37">
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="31">
         <v>20</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="13">
         <f>(E51/D51)*20</f>
         <v>11</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="62" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="37">
+      <c r="C53" s="56"/>
+      <c r="D53" s="31">
         <v>5</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="62" t="s">
+      <c r="A54" s="25"/>
+      <c r="B54" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="37">
+      <c r="C54" s="56"/>
+      <c r="D54" s="31">
         <v>25</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/CPIT380-Group Project - Rubric(1).xlsx
+++ b/CPIT380-Group Project - Rubric(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nero\Documents\NetBeansProjects\Cpit380_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C774E8-2FD6-44E4-B492-83330093D924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DB2BEF-8834-4D23-BA36-4026ECC875C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
   <si>
     <r>
       <t>S</t>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t xml:space="preserve">need to ask </t>
+  </si>
+  <si>
+    <t>Ask to delete</t>
   </si>
 </sst>
 </file>
@@ -566,18 +569,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -594,6 +591,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,20 +794,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -797,157 +806,229 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,31 +1347,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F47" sqref="A47:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17" style="22" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="11" style="22" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="17" style="14" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1308,904 +1389,918 @@
       <c r="E2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="35">
+      <c r="C3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="21">
         <v>3</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="22">
         <v>0</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
-        <v>2</v>
-      </c>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="24">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="35">
-        <v>2</v>
-      </c>
-      <c r="E4" s="36">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37">
+      <c r="C4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="41">
-        <v>1</v>
-      </c>
-      <c r="E5" s="36">
-        <v>1</v>
-      </c>
-      <c r="F5" s="37">
+      <c r="C5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="27">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="41">
-        <v>1</v>
-      </c>
-      <c r="E6" s="36">
-        <v>1</v>
-      </c>
-      <c r="F6" s="37">
+      <c r="C6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="41">
-        <v>1</v>
-      </c>
-      <c r="E7" s="36">
-        <v>1</v>
-      </c>
-      <c r="F7" s="37">
+      <c r="C7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
+      <c r="A8" s="24">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="35">
-        <v>1</v>
-      </c>
-      <c r="E8" s="36">
-        <v>1</v>
-      </c>
-      <c r="F8" s="37">
+      <c r="C8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="35">
-        <v>1</v>
-      </c>
-      <c r="E9" s="36">
-        <v>1</v>
-      </c>
-      <c r="F9" s="37">
+      <c r="C9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
+      <c r="A10" s="24">
         <v>8</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="35">
-        <v>1</v>
-      </c>
-      <c r="E10" s="36">
-        <v>1</v>
-      </c>
-      <c r="F10" s="37">
+      <c r="C10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
-        <v>9</v>
-      </c>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="35">
-        <v>1</v>
-      </c>
-      <c r="E11" s="36">
-        <v>1</v>
-      </c>
-      <c r="F11" s="37">
+      <c r="C11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
+      <c r="A12" s="24">
         <v>10</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="35">
-        <v>1</v>
-      </c>
-      <c r="E12" s="36">
+      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
         <v>0</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="35">
-        <v>2</v>
-      </c>
-      <c r="E13" s="36">
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="E13" s="22">
         <v>0</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
+      <c r="A14" s="24">
         <v>12</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="21">
         <v>3</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="22">
         <v>0</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
+      <c r="A15" s="18">
         <v>13</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="35">
-        <v>2</v>
-      </c>
-      <c r="E15" s="36">
-        <v>1</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="22">
+      <c r="C15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="21">
+        <v>2</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38">
+      <c r="A16" s="24">
         <v>14</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="47">
-        <v>2</v>
-      </c>
-      <c r="E16" s="42">
-        <v>1</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="22">
+      <c r="C16" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="33">
+        <v>2</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
+      <c r="A17" s="18">
         <v>15</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="41">
-        <v>2</v>
-      </c>
-      <c r="E17" s="42">
-        <v>1</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="22">
+      <c r="C17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="27">
+        <v>2</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="58">
         <v>16</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="54">
         <v>0</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="55">
         <v>0</v>
       </c>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32">
+      <c r="A19" s="18">
         <v>17</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="41">
-        <v>1</v>
-      </c>
-      <c r="E19" s="42">
-        <v>1</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="22">
+      <c r="C19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="27">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63">
+      <c r="A20" s="69">
         <v>18</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="60">
+      <c r="C20" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="72">
         <v>3</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="73">
         <v>3</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="22">
+      <c r="F20" s="74"/>
+      <c r="G20" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="41">
+      <c r="C21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="27">
         <v>3</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="28">
         <v>3</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="22">
+      <c r="F21" s="29"/>
+      <c r="G21" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38">
+      <c r="A22" s="24">
         <v>20</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="41">
+      <c r="C22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="27">
         <v>3</v>
       </c>
-      <c r="E22" s="42">
-        <v>2</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="22">
+      <c r="E22" s="28">
+        <v>2</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32">
+      <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="27">
         <v>3</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="28">
         <v>0</v>
       </c>
-      <c r="F23" s="43"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38">
+      <c r="A24" s="24">
         <v>22</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="41">
+      <c r="C24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="27">
         <v>3</v>
       </c>
-      <c r="E24" s="42">
-        <v>2</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="H24" s="22">
+      <c r="E24" s="28">
+        <v>2</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="H24" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32">
+      <c r="A25" s="18">
         <v>23</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="41">
+      <c r="C25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="27">
         <v>3</v>
       </c>
-      <c r="E25" s="42">
-        <v>2</v>
-      </c>
-      <c r="F25" s="43"/>
-      <c r="H25" s="22">
+      <c r="E25" s="28">
+        <v>2</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="H25" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38">
+      <c r="A26" s="24">
         <v>24</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="41">
-        <v>1</v>
-      </c>
-      <c r="E26" s="42">
-        <v>1</v>
-      </c>
-      <c r="F26" s="43"/>
-      <c r="H26" s="22">
+      <c r="C26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="27">
+        <v>1</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="H26" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="51">
         <v>25</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="54">
         <v>0</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="55">
         <v>0</v>
       </c>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49">
+      <c r="A28" s="35">
         <v>26</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="52">
+      <c r="C28" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="38">
         <v>3</v>
       </c>
-      <c r="E28" s="53">
-        <v>2</v>
-      </c>
-      <c r="F28" s="54" t="s">
+      <c r="E28" s="39">
+        <v>2</v>
+      </c>
+      <c r="F28" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38">
+      <c r="A29" s="24">
         <v>28</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="36">
+      <c r="C29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="22">
         <v>5</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="28">
         <v>3</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="H29" s="22">
+      <c r="F29" s="29"/>
+      <c r="H29" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57">
+      <c r="A30" s="41">
         <v>29</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="65">
-        <v>2</v>
-      </c>
-      <c r="E30" s="66">
-        <v>1</v>
-      </c>
-      <c r="F30" s="62" t="s">
+      <c r="C30" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="49">
+        <v>2</v>
+      </c>
+      <c r="E30" s="50">
+        <v>1</v>
+      </c>
+      <c r="F30" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38">
+      <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="47">
-        <v>2</v>
-      </c>
-      <c r="E31" s="42">
-        <v>1</v>
-      </c>
-      <c r="F31" s="43"/>
-      <c r="H31" s="22">
+      <c r="C31" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="33">
+        <v>2</v>
+      </c>
+      <c r="E31" s="28">
+        <v>1</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="H31" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="123" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="41">
+      <c r="C32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="27">
         <v>3</v>
       </c>
-      <c r="E32" s="42">
-        <v>2</v>
-      </c>
-      <c r="F32" s="43"/>
-      <c r="I32" s="22">
+      <c r="E32" s="28">
+        <v>2</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="I32" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="63">
+      <c r="A33" s="47">
         <v>32</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="60">
-        <v>2</v>
-      </c>
-      <c r="E33" s="61">
-        <v>2</v>
-      </c>
-      <c r="F33" s="62" t="s">
+      <c r="C33" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="44">
+        <v>2</v>
+      </c>
+      <c r="E33" s="45">
+        <v>2</v>
+      </c>
+      <c r="F33" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="41">
-        <v>2</v>
-      </c>
-      <c r="E34" s="42">
-        <v>1</v>
-      </c>
-      <c r="F34" s="43"/>
-      <c r="I34" s="22">
+      <c r="C34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="27">
+        <v>2</v>
+      </c>
+      <c r="E34" s="28">
+        <v>1</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="I34" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="41">
+      <c r="C35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="27">
         <v>3</v>
       </c>
-      <c r="E35" s="42">
-        <v>1</v>
-      </c>
-      <c r="F35" s="43"/>
-      <c r="I35" s="22">
+      <c r="E35" s="28">
+        <v>1</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="I35" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="57">
+      <c r="A36" s="81">
         <v>35</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="60">
+      <c r="C36" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="84">
         <v>5</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="85">
         <v>4</v>
       </c>
-      <c r="F36" s="62" t="s">
+      <c r="F36" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="18">
         <v>37</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="11">
-        <v>2</v>
-      </c>
-      <c r="E37" s="23">
-        <v>1</v>
-      </c>
-      <c r="I37" s="22">
+      <c r="C37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="27">
+        <v>2</v>
+      </c>
+      <c r="E37" s="28">
+        <v>1</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="I37" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+      <c r="A38" s="24">
         <v>38</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="11">
-        <v>2</v>
-      </c>
-      <c r="E38" s="23">
-        <v>1</v>
-      </c>
-      <c r="I38" s="22">
+      <c r="C38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="27">
+        <v>2</v>
+      </c>
+      <c r="E38" s="28">
+        <v>1</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="I38" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="18">
         <v>39</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="11">
+      <c r="C39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="27">
         <v>5</v>
       </c>
-      <c r="E39" s="23">
-        <v>2</v>
-      </c>
-      <c r="I39" s="22">
+      <c r="E39" s="28">
+        <v>2</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="I39" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+      <c r="A40" s="24">
         <v>40</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="11">
-        <v>2</v>
-      </c>
-      <c r="E40" s="23">
-        <v>1</v>
-      </c>
-      <c r="I40" s="22">
+      <c r="C40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="27">
+        <v>2</v>
+      </c>
+      <c r="E40" s="28">
+        <v>1</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="I40" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="18">
         <v>41</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="11">
-        <v>2</v>
-      </c>
-      <c r="E41" s="23">
-        <v>1</v>
-      </c>
-      <c r="I41" s="22">
+      <c r="C41" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="27">
+        <v>2</v>
+      </c>
+      <c r="E41" s="28">
+        <v>1</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="I41" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+      <c r="A42" s="24">
         <v>42</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="11">
-        <v>2</v>
-      </c>
-      <c r="E42" s="23">
-        <v>1</v>
-      </c>
-      <c r="I42" s="22">
+      <c r="C42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="27">
+        <v>2</v>
+      </c>
+      <c r="E42" s="28">
+        <v>1</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="I42" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="A43" s="18">
         <v>43</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="11">
-        <v>2</v>
-      </c>
-      <c r="E43" s="23">
-        <v>1</v>
-      </c>
-      <c r="I43" s="22">
+      <c r="C43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="27">
+        <v>2</v>
+      </c>
+      <c r="E43" s="28">
+        <v>1</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="I43" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+      <c r="A44" s="24">
         <v>44</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="11">
-        <v>2</v>
-      </c>
-      <c r="E44" s="23">
-        <v>1</v>
-      </c>
-      <c r="I44" s="22">
+      <c r="C44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="27">
+        <v>2</v>
+      </c>
+      <c r="E44" s="28">
+        <v>1</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="I44" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="51">
         <v>45</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="54">
         <v>0</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="55">
         <v>0</v>
       </c>
+      <c r="F45" s="56"/>
     </row>
     <row r="46" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
+      <c r="A46" s="75">
         <v>46</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="78">
         <v>5</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="79">
         <v>0</v>
+      </c>
+      <c r="F46" s="80" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -2215,148 +2310,151 @@
       <c r="B47" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="11">
+      <c r="C47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8">
         <v>5</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="15">
         <v>4</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+      <c r="A48" s="58">
         <v>48</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="54">
         <v>0</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="55">
         <v>0</v>
       </c>
+      <c r="F48" s="56"/>
     </row>
     <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="51">
         <v>49</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="61">
         <v>0</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="55">
         <v>0</v>
       </c>
+      <c r="F49" s="56"/>
     </row>
     <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
+      <c r="A50" s="62">
         <v>50</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="65">
         <v>0</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="66">
         <v>0</v>
       </c>
+      <c r="F50" s="56"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="13">
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="9">
         <f>SUM(D3:D50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="9">
         <f>SUM(E3:E50)</f>
         <v>55</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="9">
         <f>SUM(F3:F50)</f>
         <v>10</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="9">
         <f t="shared" ref="G51:I51" si="0">SUM(G3:G50)</f>
         <v>12</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="31">
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="17">
         <v>20</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="9">
         <f>(E51/D51)*20</f>
         <v>11</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="56" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="31">
+      <c r="C53" s="68"/>
+      <c r="D53" s="17">
         <v>5</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="56" t="s">
+      <c r="A54" s="16"/>
+      <c r="B54" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="31">
+      <c r="C54" s="68"/>
+      <c r="D54" s="17">
         <v>25</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/CPIT380-Group Project - Rubric(1).xlsx
+++ b/CPIT380-Group Project - Rubric(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nero\Documents\NetBeansProjects\Cpit380_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DB2BEF-8834-4D23-BA36-4026ECC875C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F159DD3F-03A9-4121-8F76-9529CAF93BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,15 +788,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,18 +797,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,65 +956,65 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1347,31 +1332,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F47" sqref="A47:F47"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17" style="14" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="11" style="14" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11" style="10" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1389,1072 +1374,1073 @@
       <c r="E2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="C3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16">
         <v>3</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="17">
         <v>0</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="21">
-        <v>2</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="C4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="27">
-        <v>1</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="27">
-        <v>1</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="C6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="27">
-        <v>1</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="21">
-        <v>1</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23">
+      <c r="C8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23">
+      <c r="C9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="C10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="21">
-        <v>1</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="C11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="21">
-        <v>1</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
         <v>0</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="21">
-        <v>2</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+      <c r="E13" s="17">
         <v>0</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="16">
         <v>3</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="17">
         <v>0</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="21">
-        <v>2</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="14">
+      <c r="C15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
+      <c r="A16" s="19">
         <v>14</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="33">
-        <v>2</v>
-      </c>
-      <c r="E16" s="28">
-        <v>1</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="14">
+      <c r="C16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="28">
+        <v>2</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="27">
-        <v>2</v>
-      </c>
-      <c r="E17" s="28">
-        <v>1</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="14">
+      <c r="C17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="22">
+        <v>2</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58">
+      <c r="A18" s="53">
         <v>16</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="49">
         <v>0</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="50">
         <v>0</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="13">
         <v>17</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="27">
-        <v>1</v>
-      </c>
-      <c r="E19" s="28">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="14">
+      <c r="C19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="22">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69">
+      <c r="A20" s="62">
         <v>18</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="72">
+      <c r="C20" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="65">
         <v>3</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="66">
         <v>3</v>
       </c>
-      <c r="F20" s="74"/>
-      <c r="G20" s="14">
+      <c r="F20" s="67"/>
+      <c r="G20" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+      <c r="A21" s="13">
         <v>19</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="27">
+      <c r="C21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="22">
         <v>3</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="23">
         <v>3</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="14">
+      <c r="F21" s="24"/>
+      <c r="G21" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
+      <c r="A22" s="19">
         <v>20</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="27">
+      <c r="C22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="22">
         <v>3</v>
       </c>
-      <c r="E22" s="28">
-        <v>2</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="14">
+      <c r="E22" s="23">
+        <v>2</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+      <c r="A23" s="13">
         <v>21</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="22">
         <v>3</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="23">
         <v>0</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
+      <c r="A24" s="19">
         <v>22</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="27">
+      <c r="C24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="22">
         <v>3</v>
       </c>
-      <c r="E24" s="28">
-        <v>2</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="H24" s="14">
+      <c r="E24" s="23">
+        <v>2</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="H24" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="13">
         <v>23</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="27">
+      <c r="C25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="22">
         <v>3</v>
       </c>
-      <c r="E25" s="28">
-        <v>2</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="H25" s="14">
+      <c r="E25" s="23">
+        <v>2</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="H25" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
+      <c r="A26" s="19">
         <v>24</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="27">
-        <v>1</v>
-      </c>
-      <c r="E26" s="28">
-        <v>1</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="H26" s="14">
+      <c r="C26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="22">
+        <v>1</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="H26" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51">
+      <c r="A27" s="46">
         <v>25</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="49">
         <v>0</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="50">
         <v>0</v>
       </c>
-      <c r="F27" s="56"/>
+      <c r="F27" s="51"/>
     </row>
     <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35">
+      <c r="A28" s="30">
         <v>26</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="38">
+      <c r="C28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="33">
         <v>3</v>
       </c>
-      <c r="E28" s="39">
-        <v>2</v>
-      </c>
-      <c r="F28" s="40" t="s">
+      <c r="E28" s="34">
+        <v>2</v>
+      </c>
+      <c r="F28" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="22">
+      <c r="C29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="17">
         <v>5</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="23">
         <v>3</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="H29" s="14">
+      <c r="F29" s="24"/>
+      <c r="H29" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41">
+      <c r="A30" s="36">
         <v>29</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="49">
-        <v>2</v>
-      </c>
-      <c r="E30" s="50">
-        <v>1</v>
-      </c>
-      <c r="F30" s="46" t="s">
+      <c r="C30" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="44">
+        <v>2</v>
+      </c>
+      <c r="E30" s="45">
+        <v>1</v>
+      </c>
+      <c r="F30" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="33">
-        <v>2</v>
-      </c>
-      <c r="E31" s="28">
-        <v>1</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="H31" s="14">
+      <c r="C31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="28">
+        <v>2</v>
+      </c>
+      <c r="E31" s="23">
+        <v>1</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="H31" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="123" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="27">
+      <c r="C32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="22">
         <v>3</v>
       </c>
-      <c r="E32" s="28">
-        <v>2</v>
-      </c>
-      <c r="F32" s="29"/>
-      <c r="I32" s="14">
+      <c r="E32" s="23">
+        <v>2</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="I32" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47">
+      <c r="A33" s="42">
         <v>32</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="44">
-        <v>2</v>
-      </c>
-      <c r="E33" s="45">
-        <v>2</v>
-      </c>
-      <c r="F33" s="46" t="s">
+      <c r="C33" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="39">
+        <v>2</v>
+      </c>
+      <c r="E33" s="40">
+        <v>2</v>
+      </c>
+      <c r="F33" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="27">
-        <v>2</v>
-      </c>
-      <c r="E34" s="28">
-        <v>1</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="I34" s="14">
+      <c r="C34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="22">
+        <v>2</v>
+      </c>
+      <c r="E34" s="23">
+        <v>1</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="I34" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="27">
+      <c r="C35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="22">
         <v>3</v>
       </c>
-      <c r="E35" s="28">
-        <v>1</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="I35" s="14">
+      <c r="E35" s="23">
+        <v>1</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="I35" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81">
+      <c r="A36" s="74">
         <v>35</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="84">
+      <c r="C36" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="77">
         <v>5</v>
       </c>
-      <c r="E36" s="85">
+      <c r="E36" s="78">
         <v>4</v>
       </c>
-      <c r="F36" s="86" t="s">
+      <c r="F36" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
+      <c r="A37" s="13">
         <v>37</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="27">
-        <v>2</v>
-      </c>
-      <c r="E37" s="28">
-        <v>1</v>
-      </c>
-      <c r="F37" s="29"/>
-      <c r="I37" s="14">
+      <c r="C37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="22">
+        <v>2</v>
+      </c>
+      <c r="E37" s="23">
+        <v>1</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="I37" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24">
+      <c r="A38" s="19">
         <v>38</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="27">
-        <v>2</v>
-      </c>
-      <c r="E38" s="28">
-        <v>1</v>
-      </c>
-      <c r="F38" s="29"/>
-      <c r="I38" s="14">
+      <c r="C38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="22">
+        <v>2</v>
+      </c>
+      <c r="E38" s="23">
+        <v>1</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="I38" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="A39" s="13">
         <v>39</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="27">
+      <c r="C39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="22">
         <v>5</v>
       </c>
-      <c r="E39" s="28">
-        <v>2</v>
-      </c>
-      <c r="F39" s="29"/>
-      <c r="I39" s="14">
+      <c r="E39" s="23">
+        <v>2</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="I39" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24">
+      <c r="A40" s="19">
         <v>40</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="27">
-        <v>2</v>
-      </c>
-      <c r="E40" s="28">
-        <v>1</v>
-      </c>
-      <c r="F40" s="29"/>
-      <c r="I40" s="14">
+      <c r="C40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="22">
+        <v>2</v>
+      </c>
+      <c r="E40" s="23">
+        <v>1</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="I40" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="13">
         <v>41</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="27">
-        <v>2</v>
-      </c>
-      <c r="E41" s="28">
-        <v>1</v>
-      </c>
-      <c r="F41" s="29"/>
-      <c r="I41" s="14">
+      <c r="C41" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="22">
+        <v>2</v>
+      </c>
+      <c r="E41" s="23">
+        <v>1</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="I41" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24">
+      <c r="A42" s="19">
         <v>42</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="27">
-        <v>2</v>
-      </c>
-      <c r="E42" s="28">
-        <v>1</v>
-      </c>
-      <c r="F42" s="29"/>
-      <c r="I42" s="14">
+      <c r="C42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="22">
+        <v>2</v>
+      </c>
+      <c r="E42" s="23">
+        <v>1</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="I42" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="13">
         <v>43</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="27">
-        <v>2</v>
-      </c>
-      <c r="E43" s="28">
-        <v>1</v>
-      </c>
-      <c r="F43" s="29"/>
-      <c r="I43" s="14">
+      <c r="C43" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="22">
+        <v>2</v>
+      </c>
+      <c r="E43" s="23">
+        <v>1</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="I43" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
+      <c r="A44" s="19">
         <v>44</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="27">
-        <v>2</v>
-      </c>
-      <c r="E44" s="28">
-        <v>1</v>
-      </c>
-      <c r="F44" s="29"/>
-      <c r="I44" s="14">
+      <c r="C44" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="22">
+        <v>2</v>
+      </c>
+      <c r="E44" s="23">
+        <v>1</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="I44" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="51">
+      <c r="A45" s="46">
         <v>45</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="54">
+      <c r="D45" s="49">
         <v>0</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="50">
         <v>0</v>
       </c>
-      <c r="F45" s="56"/>
+      <c r="F45" s="51"/>
     </row>
     <row r="46" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="75">
+      <c r="A46" s="68">
         <v>46</v>
       </c>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="78">
+      <c r="D46" s="71">
         <v>5</v>
       </c>
-      <c r="E46" s="79">
+      <c r="E46" s="72">
         <v>0</v>
       </c>
-      <c r="F46" s="80" t="s">
+      <c r="F46" s="73" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="13">
         <v>47</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="C47" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="22">
         <v>5</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="23">
         <v>4</v>
       </c>
-      <c r="I47" s="14">
+      <c r="F47" s="24"/>
+      <c r="I47" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="58">
+      <c r="A48" s="53">
         <v>48</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="54">
+      <c r="D48" s="49">
         <v>0</v>
       </c>
-      <c r="E48" s="55">
+      <c r="E48" s="50">
         <v>0</v>
       </c>
-      <c r="F48" s="56"/>
+      <c r="F48" s="51"/>
     </row>
     <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="51">
+      <c r="A49" s="46">
         <v>49</v>
       </c>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="61">
+      <c r="D49" s="56">
         <v>0</v>
       </c>
-      <c r="E49" s="55">
+      <c r="E49" s="50">
         <v>0</v>
       </c>
-      <c r="F49" s="56"/>
+      <c r="F49" s="51"/>
     </row>
     <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="62">
+      <c r="A50" s="57">
         <v>50</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="65">
+      <c r="D50" s="60">
         <v>0</v>
       </c>
-      <c r="E50" s="66">
+      <c r="E50" s="61">
         <v>0</v>
       </c>
-      <c r="F50" s="56"/>
+      <c r="F50" s="51"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="9">
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="6">
         <f>SUM(D3:D50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="6">
         <f>SUM(E3:E50)</f>
         <v>55</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="6">
         <f>SUM(F3:F50)</f>
         <v>10</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="6">
         <f t="shared" ref="G51:I51" si="0">SUM(G3:G50)</f>
         <v>12</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="17">
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="12">
         <v>20</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="6">
         <f>(E51/D51)*20</f>
         <v>11</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="68" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="17">
+      <c r="C53" s="81"/>
+      <c r="D53" s="12">
         <v>5</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="68" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="17">
+      <c r="C54" s="81"/>
+      <c r="D54" s="12">
         <v>25</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/CPIT380-Group Project - Rubric(1).xlsx
+++ b/CPIT380-Group Project - Rubric(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nero\Documents\NetBeansProjects\Cpit380_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F159DD3F-03A9-4121-8F76-9529CAF93BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF93CE-E193-4329-8615-E579825090BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <r>
       <t>S</t>
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t>Counting Number of Vehicles - User will input an  video where some vehicles will pass through and system will count how many vehicles are present in that image or video. User may use toy cars.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fix m wm photo </t>
   </si>
   <si>
     <t>need to ask to delete it</t>
@@ -569,7 +566,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,18 +576,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,12 +594,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,7 +839,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,7 +857,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,26 +905,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -926,88 +923,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1332,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,13 +1272,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1685,22 +1607,22 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53">
+      <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="22">
         <v>0</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="23">
         <v>0</v>
       </c>
-      <c r="F18" s="51"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
@@ -1724,22 +1646,22 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62">
+      <c r="A20" s="46">
         <v>18</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="65">
+      <c r="C20" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="49">
         <v>3</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="50">
         <v>3</v>
       </c>
-      <c r="F20" s="67"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="10">
         <v>3</v>
       </c>
@@ -1868,42 +1790,40 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46">
+      <c r="A27" s="30">
         <v>25</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="33">
         <v>0</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="34">
         <v>0</v>
       </c>
-      <c r="F27" s="51"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30">
+      <c r="A28" s="19">
         <v>26</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="33">
+      <c r="C28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="22">
         <v>3</v>
       </c>
-      <c r="E28" s="34">
-        <v>2</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>64</v>
-      </c>
+      <c r="E28" s="23">
+        <v>2</v>
+      </c>
+      <c r="F28" s="24"/>
       <c r="H28" s="10">
         <v>2</v>
       </c>
@@ -1930,23 +1850,23 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="44">
-        <v>2</v>
-      </c>
-      <c r="E30" s="45">
-        <v>1</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>67</v>
+      <c r="C30" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="59">
+        <v>2</v>
+      </c>
+      <c r="E30" s="60">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="H30" s="10">
         <v>1</v>
@@ -1995,23 +1915,23 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="39">
-        <v>2</v>
-      </c>
-      <c r="E33" s="40">
-        <v>2</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>66</v>
+      <c r="C33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="22">
+        <v>2</v>
+      </c>
+      <c r="E33" s="23">
+        <v>2</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="I33" s="10">
         <v>2</v>
@@ -2060,23 +1980,23 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="77">
+      <c r="C36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="22">
         <v>5</v>
       </c>
-      <c r="E36" s="78">
+      <c r="E36" s="23">
         <v>4</v>
       </c>
-      <c r="F36" s="79" t="s">
-        <v>65</v>
+      <c r="F36" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="I36" s="10">
         <v>4</v>
@@ -2251,41 +2171,41 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="46">
+      <c r="A45" s="30">
         <v>45</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="33">
         <v>0</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="34">
         <v>0</v>
       </c>
-      <c r="F45" s="51"/>
+      <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="68">
+      <c r="A46" s="52">
         <v>46</v>
       </c>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="71">
+      <c r="D46" s="55">
         <v>5</v>
       </c>
-      <c r="E46" s="72">
+      <c r="E46" s="56">
         <v>0</v>
       </c>
-      <c r="F46" s="73" t="s">
-        <v>68</v>
+      <c r="F46" s="57" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -2310,65 +2230,65 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53">
+      <c r="A48" s="37">
         <v>48</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="33">
         <v>0</v>
       </c>
-      <c r="E48" s="50">
+      <c r="E48" s="34">
         <v>0</v>
       </c>
-      <c r="F48" s="51"/>
+      <c r="F48" s="35"/>
     </row>
     <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="46">
+      <c r="A49" s="30">
         <v>49</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="56">
+      <c r="D49" s="40">
         <v>0</v>
       </c>
-      <c r="E49" s="50">
+      <c r="E49" s="34">
         <v>0</v>
       </c>
-      <c r="F49" s="51"/>
+      <c r="F49" s="35"/>
     </row>
     <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="57">
+      <c r="A50" s="41">
         <v>50</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="60">
+      <c r="D50" s="44">
         <v>0</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="45">
         <v>0</v>
       </c>
-      <c r="F50" s="51"/>
+      <c r="F50" s="35"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="6">
         <f>SUM(D3:D50)</f>
         <v>100</v>
@@ -2395,11 +2315,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="12">
         <v>20</v>
       </c>
@@ -2414,10 +2334,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="81" t="s">
+      <c r="B53" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="81"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="12">
         <v>5</v>
       </c>
@@ -2429,10 +2349,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="81" t="s">
+      <c r="B54" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="81"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="12">
         <v>25</v>
       </c>

--- a/CPIT380-Group Project - Rubric(1).xlsx
+++ b/CPIT380-Group Project - Rubric(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nero\Documents\NetBeansProjects\Cpit380_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF93CE-E193-4329-8615-E579825090BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321094B8-C883-481E-B702-29AE368EEFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <r>
       <t>S</t>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>Object Detection - User may use any image that may contain a book, or pencil, or mouse, or anything simple object and system will detect to localize where in the image, that objetc exist and draw a rectangle around that object.</t>
-  </si>
-  <si>
-    <t>Tracking Method - User will input a video and detect an object, frame by frame and continue drawing rectangle in each frame to track the object e.g. a flying bird in the video may be tracked or moving vehicle.</t>
   </si>
   <si>
     <t xml:space="preserve">Total </t>
@@ -462,16 +459,28 @@
     <t>Counting Number of Vehicles - User will input an  video where some vehicles will pass through and system will count how many vehicles are present in that image or video. User may use toy cars.</t>
   </si>
   <si>
-    <t>need to ask to delete it</t>
-  </si>
-  <si>
-    <t>ask if it good?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need to ask </t>
-  </si>
-  <si>
-    <t>Ask to delete</t>
+    <t xml:space="preserve">make it dsplay in the gui </t>
+  </si>
+  <si>
+    <t>fix gui</t>
+  </si>
+  <si>
+    <t>Tracking Method - User will input a video and detect an object, frame by frame and continue drawing rectangle in each frame to track the object e.g. a flying bird in the video may be tracked or moving vehicle. Than save the video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to train the open cv </t>
+  </si>
+  <si>
+    <t>need to train the open cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make it dsplay in the gui only work with face need to train the open cv to detact opject </t>
+  </si>
+  <si>
+    <t>its correct but nah</t>
+  </si>
+  <si>
+    <t>need to change the code</t>
   </si>
 </sst>
 </file>
@@ -566,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,13 +596,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -839,104 +854,95 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,13 +1278,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="A1" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1294,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>4</v>
@@ -1569,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>9</v>
@@ -1606,11 +1612,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -1646,22 +1652,24 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46">
+      <c r="A20" s="38">
         <v>18</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="49">
+      <c r="C20" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="35">
         <v>3</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="36">
         <v>3</v>
       </c>
-      <c r="F20" s="51"/>
+      <c r="F20" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="G20" s="10">
         <v>3</v>
       </c>
@@ -1790,22 +1798,24 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30">
+      <c r="A27" s="42">
         <v>25</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="35">
         <v>0</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="36">
         <v>0</v>
       </c>
-      <c r="F27" s="35"/>
+      <c r="F27" s="37" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
@@ -1856,18 +1866,16 @@
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="59">
-        <v>2</v>
-      </c>
-      <c r="E30" s="60">
-        <v>1</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>66</v>
-      </c>
+      <c r="C30" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="40">
+        <v>2</v>
+      </c>
+      <c r="E30" s="41">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24"/>
       <c r="H30" s="10">
         <v>1</v>
       </c>
@@ -1930,9 +1938,7 @@
       <c r="E33" s="23">
         <v>2</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="F33" s="24"/>
       <c r="I33" s="10">
         <v>2</v>
       </c>
@@ -1980,23 +1986,23 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="A36" s="49">
         <v>35</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="22">
+      <c r="C36" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="55">
         <v>5</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="47">
         <v>4</v>
       </c>
-      <c r="F36" s="24" t="s">
-        <v>64</v>
+      <c r="F36" s="48" t="s">
+        <v>69</v>
       </c>
       <c r="I36" s="10">
         <v>4</v>
@@ -2171,41 +2177,43 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="30">
+      <c r="A45" s="42">
         <v>45</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="33">
+      <c r="D45" s="35">
         <v>0</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="36">
         <v>0</v>
       </c>
-      <c r="F45" s="35"/>
+      <c r="F45" s="37" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="52">
+      <c r="A46" s="38">
         <v>46</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="55">
+      <c r="D46" s="35">
         <v>5</v>
       </c>
-      <c r="E46" s="56">
+      <c r="E46" s="36">
         <v>0</v>
       </c>
-      <c r="F46" s="57" t="s">
-        <v>67</v>
+      <c r="F46" s="37" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -2230,65 +2238,71 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="37">
+      <c r="A48" s="38">
         <v>48</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="33">
+      <c r="D48" s="35">
         <v>0</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="36">
         <v>0</v>
       </c>
-      <c r="F48" s="35"/>
+      <c r="F48" s="37" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="30">
+      <c r="A49" s="49">
         <v>49</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="46">
+        <v>0</v>
+      </c>
+      <c r="E49" s="47">
+        <v>0</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="52">
+        <v>0</v>
+      </c>
+      <c r="E50" s="53">
+        <v>0</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="40">
-        <v>0</v>
-      </c>
-      <c r="E49" s="34">
-        <v>0</v>
-      </c>
-      <c r="F49" s="35"/>
-    </row>
-    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="41">
-        <v>50</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="44">
-        <v>0</v>
-      </c>
-      <c r="E50" s="45">
-        <v>0</v>
-      </c>
-      <c r="F50" s="35"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="6">
         <f>SUM(D3:D50)</f>
         <v>100</v>
@@ -2315,11 +2329,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
+      <c r="A52" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="12">
         <v>20</v>
       </c>
@@ -2334,10 +2348,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="62"/>
+      <c r="B53" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="58"/>
       <c r="D53" s="12">
         <v>5</v>
       </c>
@@ -2349,10 +2363,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="62"/>
+      <c r="B54" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="58"/>
       <c r="D54" s="12">
         <v>25</v>
       </c>

--- a/CPIT380-Group Project - Rubric(1).xlsx
+++ b/CPIT380-Group Project - Rubric(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nero\Documents\NetBeansProjects\Cpit380_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nero\Documents\GitHub\Cpit380Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321094B8-C883-481E-B702-29AE368EEFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254CD210-E5F6-46AA-BD53-0808C3C4D223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <r>
       <t>S</t>
@@ -459,12 +459,6 @@
     <t>Counting Number of Vehicles - User will input an  video where some vehicles will pass through and system will count how many vehicles are present in that image or video. User may use toy cars.</t>
   </si>
   <si>
-    <t xml:space="preserve">make it dsplay in the gui </t>
-  </si>
-  <si>
-    <t>fix gui</t>
-  </si>
-  <si>
     <t>Tracking Method - User will input a video and detect an object, frame by frame and continue drawing rectangle in each frame to track the object e.g. a flying bird in the video may be tracked or moving vehicle. Than save the video</t>
   </si>
   <si>
@@ -474,13 +468,7 @@
     <t>need to train the open cv</t>
   </si>
   <si>
-    <t xml:space="preserve">make it dsplay in the gui only work with face need to train the open cv to detact opject </t>
-  </si>
-  <si>
-    <t>its correct but nah</t>
-  </si>
-  <si>
-    <t>need to change the code</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -575,7 +563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,12 +578,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -603,12 +585,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,94 +830,79 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1260,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,13 +1239,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1331,9 +1292,7 @@
       <c r="E3" s="17">
         <v>0</v>
       </c>
-      <c r="F3" s="18">
-        <v>2</v>
-      </c>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
@@ -1351,9 +1310,7 @@
       <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="18">
-        <v>1</v>
-      </c>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
@@ -1503,7 +1460,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D12" s="16">
         <v>1</v>
@@ -1521,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D13" s="16">
         <v>2</v>
@@ -1539,7 +1496,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D14" s="16">
         <v>3</v>
@@ -1612,15 +1569,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D18" s="22">
         <v>0</v>
@@ -1652,24 +1609,22 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38">
+      <c r="A20" s="34">
         <v>18</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="35">
+      <c r="C20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="31">
         <v>3</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="32">
         <v>3</v>
       </c>
-      <c r="F20" s="37" t="s">
-        <v>70</v>
-      </c>
+      <c r="F20" s="33"/>
       <c r="G20" s="10">
         <v>3</v>
       </c>
@@ -1724,7 +1679,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D23" s="22">
         <v>3</v>
@@ -1798,24 +1753,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42">
+      <c r="A27" s="13">
         <v>25</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="35">
+      <c r="C27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="22">
         <v>0</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="23">
         <v>0</v>
       </c>
-      <c r="F27" s="37" t="s">
-        <v>63</v>
-      </c>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
@@ -1866,13 +1819,13 @@
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="40">
-        <v>2</v>
-      </c>
-      <c r="E30" s="41">
+      <c r="C30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="36">
+        <v>2</v>
+      </c>
+      <c r="E30" s="37">
         <v>1</v>
       </c>
       <c r="F30" s="24"/>
@@ -1986,24 +1939,22 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="55">
+      <c r="C36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="22">
         <v>5</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="23">
         <v>4</v>
       </c>
-      <c r="F36" s="48" t="s">
-        <v>69</v>
-      </c>
+      <c r="F36" s="24"/>
       <c r="I36" s="10">
         <v>4</v>
       </c>
@@ -2177,44 +2128,40 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="42">
+      <c r="A45" s="13">
         <v>45</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="35">
+      <c r="C45" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="22">
         <v>0</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="23">
         <v>0</v>
       </c>
-      <c r="F45" s="37" t="s">
-        <v>64</v>
-      </c>
+      <c r="F45" s="24"/>
     </row>
     <row r="46" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="38">
+      <c r="A46" s="19">
         <v>46</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="35">
+      <c r="C46" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="22">
         <v>5</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="23">
         <v>0</v>
       </c>
-      <c r="F46" s="37" t="s">
-        <v>64</v>
-      </c>
+      <c r="F46" s="24"/>
     </row>
     <row r="47" spans="1:9" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
@@ -2238,71 +2185,71 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="38">
+      <c r="A48" s="19">
         <v>48</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="22">
+        <v>0</v>
+      </c>
+      <c r="E48" s="23">
+        <v>0</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="42">
+        <v>49</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D49" s="39">
         <v>0</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E49" s="40">
         <v>0</v>
       </c>
-      <c r="F48" s="37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="49">
-        <v>49</v>
-      </c>
-      <c r="B49" s="32" t="s">
+      <c r="F49" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="43">
+        <v>50</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="45">
+        <v>0</v>
+      </c>
+      <c r="E50" s="46">
+        <v>0</v>
+      </c>
+      <c r="F50" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="46">
-        <v>0</v>
-      </c>
-      <c r="E49" s="47">
-        <v>0</v>
-      </c>
-      <c r="F49" s="48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="50">
-        <v>50</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="52">
-        <v>0</v>
-      </c>
-      <c r="E50" s="53">
-        <v>0</v>
-      </c>
-      <c r="F50" s="48" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="6">
         <f>SUM(D3:D50)</f>
         <v>100</v>
@@ -2313,7 +2260,7 @@
       </c>
       <c r="F51" s="6">
         <f>SUM(F3:F50)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" ref="G51:I51" si="0">SUM(G3:G50)</f>
@@ -2329,11 +2276,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="12">
         <v>20</v>
       </c>
@@ -2348,10 +2295,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="58"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="12">
         <v>5</v>
       </c>
@@ -2363,10 +2310,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="58"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="12">
         <v>25</v>
       </c>
